--- a/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
+++ b/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -82,244 +82,73 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDEZ</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
+    <t>COUDER</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>CADEZA</t>
+    <t>MELENDEZ</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>FLORENCIO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>JUAN</t>
-  </si>
-  <si>
-    <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>IXTACUA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>PALAGOT</t>
-  </si>
-  <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>MELLADO</t>
-  </si>
-  <si>
     <t>CHICO</t>
   </si>
   <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>DEL ANGEL</t>
-  </si>
-  <si>
-    <t>MIRON</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TETLA</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>ALEX SAUL</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
-    <t>GIOVANNA</t>
+    <t>YULIANA</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
   </si>
   <si>
     <t>SAUL ALEJANDRO</t>
   </si>
   <si>
-    <t>LOGAN ZURIEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO</t>
-  </si>
-  <si>
     <t>NATANAEL</t>
   </si>
   <si>
-    <t>DIANA AMEYALLI</t>
-  </si>
-  <si>
-    <t>ANUAR ANTONIO</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAHIR</t>
-  </si>
-  <si>
-    <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
     <t>ERICK ORLANDO</t>
   </si>
   <si>
-    <t>IRVING OTTONIEL</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JUAN LUIS</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>OSWALDO ENRIQUE</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>JOSUE GILBERTO</t>
+    <t>VALENTIN</t>
   </si>
 </sst>
 </file>
@@ -723,16 +552,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>65.79000000000001</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -746,16 +578,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -769,16 +604,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>91.3</v>
+      </c>
+      <c r="H4">
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,16 +630,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -815,16 +656,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>79.41</v>
+      </c>
+      <c r="H6">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -838,16 +682,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +753,7 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -929,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -952,7 +799,7 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -975,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -998,7 +845,7 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1021,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1083,16 +930,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>65.79000000000001</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1106,16 +956,19 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1129,16 +982,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>91.3</v>
+      </c>
+      <c r="H4">
+        <v>9.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1152,16 +1008,19 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1175,16 +1034,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>79.41</v>
+      </c>
+      <c r="H6">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1198,16 +1060,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1252,45 +1117,45 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920005</v>
+        <v>19330051920276</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920004</v>
+        <v>19330051920102</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -1298,62 +1163,62 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920006</v>
+        <v>19330051920197</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920007</v>
+        <v>19330051920213</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920008</v>
+        <v>19330051920017</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1367,16 +1232,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920015</v>
+        <v>18330061460390</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1390,16 +1255,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920012</v>
+        <v>19330051920038</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1413,623 +1278,25 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920011</v>
+        <v>19330051920266</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920009</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920017</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920020</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920021</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920023</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330061460390</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920025</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920027</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920029</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920030</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920031</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920035</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920038</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920088</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920090</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920089</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920097</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920102</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>19330051920103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>19330051920106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920121</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
+++ b/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
@@ -85,70 +85,70 @@
     <t>COUDER</t>
   </si>
   <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
     <t>IXMATLAHUA</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
     <t>YULIANA</t>
   </si>
   <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
     <t>MIGUEL ANGEL</t>
   </si>
   <si>
     <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
-    <t>JANETH</t>
-  </si>
-  <si>
-    <t>SAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>VALENTIN</t>
   </si>
 </sst>
 </file>
@@ -552,19 +552,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -578,16 +578,16 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="H3">
         <v>9.199999999999999</v>
@@ -656,19 +656,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -682,16 +682,16 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>66.67</v>
+        <v>69.7</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -753,7 +753,7 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>65.79000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -956,16 +956,16 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>82.86</v>
       </c>
       <c r="H3">
         <v>9.199999999999999</v>
@@ -1034,19 +1034,19 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1060,16 +1060,16 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>66.67</v>
+        <v>69.7</v>
       </c>
       <c r="H7">
         <v>9</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920102</v>
+        <v>19330051920140</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1155,21 +1155,21 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920202</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>38</v>
@@ -1192,7 +1192,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1209,13 +1209,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920017</v>
+        <v>18330061460390</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330061460390</v>
+        <v>19330051920038</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920038</v>
+        <v>19330051920102</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>42</v>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920266</v>
+        <v>19330051920197</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>6</v>

--- a/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
+++ b/docentes/Jiménez Nieto Enrique - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>Mat</t>
   </si>
@@ -82,73 +82,88 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>COUDER</t>
   </si>
   <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>LEON</t>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
   </si>
   <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>MARCELINO</t>
   </si>
   <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
+    <t>CINTHIA</t>
+  </si>
+  <si>
+    <t>MARLENE ALICIA</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
   </si>
   <si>
     <t>YULIANA</t>
   </si>
   <si>
-    <t>MARLENE ALICIA</t>
-  </si>
-  <si>
-    <t>DANNA PAOLA</t>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
   </si>
   <si>
     <t>JANETH</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1117,16 +1132,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920276</v>
+        <v>19330051920163</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1146,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1163,16 +1178,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920202</v>
+        <v>19330051920195</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1186,16 +1201,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920213</v>
+        <v>19330051920202</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1215,10 +1230,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1238,10 +1253,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1255,47 +1270,93 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920102</v>
+        <v>19330051920276</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920197</v>
+        <v>19330051920102</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G9">
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>6</v>
       </c>
     </row>
